--- a/medicine/Enfance/Body_(nourrisson)/Body_(nourrisson).xlsx
+++ b/medicine/Enfance/Body_(nourrisson)/Body_(nourrisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un body[1], plus exactement dénommé justaucorps en français, est un sous-vêtement porté par les bébés. Il couvre le corps de la nuque aux fesses. Les manches peuvent être courtes ou longues.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un body, plus exactement dénommé justaucorps en français, est un sous-vêtement porté par les bébés. Il couvre le corps de la nuque aux fesses. Les manches peuvent être courtes ou longues.
 Le body s'ouvre au niveau de l'entrejambe afin de faciliter le changement des couches. Le body croisé s'ouvre parfois jusqu'au col afin de déshabiller le bébé sans avoir à le passer par la tête alors que le body à encolure américaine se retire par la tête.
 Il est souvent fait de coton pour ne pas irriter la peau du bébé et avec des boutons-pression pour limiter les manipulations.
 </t>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les autres noms de cette tenue incluent les combinaisons (une marque déposée souvent utilisée aux États-Unis comme si elle était générique[2]),[3] les creepers, les chemises à couches ou les snapsuits. Si le body est sans manches, il peut également être appelé gilet (anglais britannique uniquement).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les autres noms de cette tenue incluent les combinaisons (une marque déposée souvent utilisée aux États-Unis comme si elle était générique), les creepers, les chemises à couches ou les snapsuits. Si le body est sans manches, il peut également être appelé gilet (anglais britannique uniquement).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Types et conception</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Figure 1. Body sans manches avec col à revers.
